--- a/0.0all/技术路线_吐血整理.xlsx
+++ b/0.0all/技术路线_吐血整理.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9FAEAC9D-34F8-443D-AF54-E57A85D8AB4E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Java全景图" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
   <si>
     <t>一级目录</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -152,14 +153,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>第三方范畴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>common</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>MySQL</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -193,13 +186,37 @@
   </si>
   <si>
     <t>环境搭建</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集群环境</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数配置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache设置Timeout时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>common&amp;difference</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -408,16 +425,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -706,7 +723,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -769,7 +786,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -777,10 +794,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -955,11 +972,11 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1"/>
-    <hyperlink ref="A18:A25" r:id="rId2" display="TypeScript"/>
-    <hyperlink ref="E12" r:id="rId3"/>
-    <hyperlink ref="H12" r:id="rId4"/>
-    <hyperlink ref="H26" r:id="rId5"/>
+    <hyperlink ref="H3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A18:A25" r:id="rId2" display="TypeScript" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="E12" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="H12" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="H26" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
@@ -967,18 +984,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.6640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="38.88671875" style="1" customWidth="1"/>
     <col min="5" max="8" width="20.109375" style="1" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="1"/>
@@ -991,9 +1008,11 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="D1" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
@@ -1010,156 +1029,155 @@
     </row>
     <row r="2" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>37</v>
+        <v>45</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
-      <c r="B3" s="18"/>
-    </row>
-    <row r="4" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="16"/>
+    </row>
+    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
-      <c r="B4" s="15" t="s">
-        <v>38</v>
+      <c r="B4" s="17" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
-      <c r="B5" s="16"/>
-    </row>
-    <row r="6" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="18"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
-      <c r="B6" s="15" t="s">
-        <v>39</v>
+      <c r="B6" s="17" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
-      <c r="B7" s="16"/>
+      <c r="B7" s="18"/>
     </row>
     <row r="8" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
-      <c r="B8" s="15" t="s">
-        <v>40</v>
+      <c r="B8" s="17" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
-      <c r="B9" s="16"/>
+      <c r="B9" s="18"/>
     </row>
     <row r="10" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>42</v>
+        <v>32</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
-      <c r="B11" s="18"/>
+      <c r="B11" s="16"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
-      <c r="B12" s="15"/>
+      <c r="B12" s="17"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
-      <c r="B13" s="16"/>
+      <c r="B13" s="18"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
-      <c r="B14" s="15"/>
+      <c r="B14" s="17"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
-      <c r="B15" s="16"/>
+      <c r="B15" s="18"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
-      <c r="B16" s="15"/>
+      <c r="B16" s="17"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
-      <c r="B17" s="16"/>
+      <c r="B17" s="18"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="17"/>
+        <v>33</v>
+      </c>
+      <c r="B18" s="15"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
-      <c r="B19" s="18"/>
+      <c r="B19" s="16"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
-      <c r="B20" s="15"/>
+      <c r="B20" s="17"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
-      <c r="B21" s="16"/>
+      <c r="B21" s="18"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
-      <c r="B22" s="15"/>
+      <c r="B22" s="17"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
-      <c r="B23" s="16"/>
+      <c r="B23" s="18"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
-      <c r="B24" s="15"/>
+      <c r="B24" s="17"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
-      <c r="B25" s="16"/>
+      <c r="B25" s="18"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="17"/>
+        <v>34</v>
+      </c>
+      <c r="B26" s="15"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
-      <c r="B27" s="18"/>
+      <c r="B27" s="16"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
-      <c r="B28" s="15"/>
+      <c r="B28" s="17"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
-      <c r="B29" s="16"/>
+      <c r="B29" s="18"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
-      <c r="B30" s="15"/>
+      <c r="B30" s="17"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
-      <c r="B31" s="16"/>
+      <c r="B31" s="18"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
-      <c r="B32" s="15"/>
+      <c r="B32" s="17"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
-      <c r="B33" s="16"/>
+      <c r="B33" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B2:B3"/>
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="A10:A17"/>
     <mergeCell ref="B30:B31"/>
@@ -1179,10 +1197,11 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B2:B3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H10" r:id="rId1"/>
+    <hyperlink ref="H10" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -1190,11 +1209,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1216,7 +1235,7 @@
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
@@ -1232,6 +1251,9 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="B2" s="9" t="s">
         <v>22</v>
       </c>
@@ -1240,27 +1262,69 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
       <c r="B3" s="11"/>
       <c r="D3" s="6" t="s">
         <v>24</v>
       </c>
     </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+    </row>
+    <row r="8" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="H8" r:id="rId3" xr:uid="{E1742C22-C45A-4502-A7EB-8B67D357E065}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1328,7 +1392,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
